--- a/2-sem/uv-25-03-19/data/burgere.xlsx
+++ b/2-sem/uv-25-03-19/data/burgere.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/perthykjaerjensen/Documents/github/E24C-first-semester/2-sem/uv-25-03-19/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF079CD1-FAAB-A040-AD78-B1767368CDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0813344-772C-F847-86AA-3D1B384A1781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="920" windowWidth="28240" windowHeight="17240" xr2:uid="{F7DD98D2-8481-D045-A307-47694E95B862}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="burgere" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -53,25 +53,25 @@
     <t>Ordinær</t>
   </si>
   <si>
-    <t>["bøf","tomat","ost"]</t>
-  </si>
-  <si>
     <t>Bacon</t>
   </si>
   <si>
     <t>Hawaian</t>
   </si>
   <si>
-    <t>["bøf","tomat","ost","ananas"]</t>
-  </si>
-  <si>
-    <t>["bøf","tomat","ost","bacon"]</t>
-  </si>
-  <si>
     <t>RumpSteak</t>
   </si>
   <si>
-    <t>["Rump Steak","tomat","ost","ananas"]</t>
+    <t>bøf, tomat, ost</t>
+  </si>
+  <si>
+    <t>bøf, tomat, bacon, ost</t>
+  </si>
+  <si>
+    <t>bøf, tomat, ost, annanas</t>
+  </si>
+  <si>
+    <t>rump steak, tomat, ost, rucola salat</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>82</v>
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -502,10 +502,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>86</v>
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
